--- a/source_data_old/48_data.xlsx
+++ b/source_data_old/48_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/hu2_un_org/Documents/Desktop/Work/Step3_NewData/_Formatted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{0913B052-390A-4A78-9D22-E2241C008485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33C27DED-54CA-418F-B8C5-5871E5F1CE12}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786E9EC-77C6-4FD8-BCB3-CCEE1A7E0D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goal5" sheetId="2" r:id="rId1"/>
@@ -1505,13 +1505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BG315"/>
+  <dimension ref="A1:AD315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6:S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="11" max="11" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1521,7 +1521,7 @@
     <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="15">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1612,35 +1612,8 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-    </row>
-    <row r="2" spans="1:59" ht="15">
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>48</v>
       </c>
@@ -1732,7 +1705,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="15">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>48</v>
       </c>
@@ -1824,7 +1797,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="15">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>48</v>
       </c>
@@ -1916,7 +1889,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="15">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>48</v>
       </c>
@@ -2008,7 +1981,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:59" ht="15">
+    <row r="6" spans="1:30">
       <c r="A6">
         <v>48</v>
       </c>
@@ -2100,7 +2073,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:59" ht="15">
+    <row r="7" spans="1:30">
       <c r="A7">
         <v>48</v>
       </c>
@@ -2192,7 +2165,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:59" ht="15">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>48</v>
       </c>
@@ -2284,7 +2257,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:59" ht="15">
+    <row r="9" spans="1:30">
       <c r="A9">
         <v>48</v>
       </c>
@@ -2376,7 +2349,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="15">
+    <row r="10" spans="1:30">
       <c r="A10">
         <v>48</v>
       </c>
@@ -2468,7 +2441,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="15">
+    <row r="11" spans="1:30">
       <c r="A11">
         <v>48</v>
       </c>
@@ -2560,7 +2533,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="15">
+    <row r="12" spans="1:30">
       <c r="A12">
         <v>48</v>
       </c>
@@ -2652,7 +2625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:59" ht="15">
+    <row r="13" spans="1:30">
       <c r="A13">
         <v>48</v>
       </c>
@@ -2744,7 +2717,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:59" ht="15">
+    <row r="14" spans="1:30">
       <c r="A14">
         <v>48</v>
       </c>
@@ -2836,7 +2809,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:59" ht="15">
+    <row r="15" spans="1:30">
       <c r="A15">
         <v>48</v>
       </c>
@@ -2928,7 +2901,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="15">
+    <row r="16" spans="1:30">
       <c r="A16">
         <v>48</v>
       </c>
@@ -3020,7 +2993,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15">
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>48</v>
       </c>
@@ -3112,7 +3085,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15">
+    <row r="18" spans="1:30">
       <c r="A18">
         <v>48</v>
       </c>
@@ -3204,7 +3177,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15">
+    <row r="19" spans="1:30">
       <c r="A19">
         <v>48</v>
       </c>
@@ -3296,7 +3269,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15">
+    <row r="20" spans="1:30">
       <c r="A20">
         <v>48</v>
       </c>
@@ -3388,7 +3361,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15">
+    <row r="21" spans="1:30">
       <c r="A21">
         <v>48</v>
       </c>
@@ -3480,7 +3453,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15">
+    <row r="22" spans="1:30">
       <c r="A22">
         <v>48</v>
       </c>
@@ -3572,7 +3545,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15">
+    <row r="23" spans="1:30">
       <c r="A23">
         <v>48</v>
       </c>
@@ -3664,7 +3637,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15">
+    <row r="24" spans="1:30">
       <c r="A24">
         <v>48</v>
       </c>
@@ -3756,7 +3729,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15">
+    <row r="25" spans="1:30">
       <c r="A25">
         <v>48</v>
       </c>
@@ -3848,7 +3821,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15">
+    <row r="26" spans="1:30">
       <c r="A26">
         <v>48</v>
       </c>
@@ -3940,7 +3913,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15">
+    <row r="27" spans="1:30">
       <c r="A27">
         <v>48</v>
       </c>
@@ -4032,7 +4005,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15">
+    <row r="28" spans="1:30">
       <c r="A28">
         <v>48</v>
       </c>
@@ -4124,7 +4097,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15">
+    <row r="29" spans="1:30">
       <c r="A29">
         <v>48</v>
       </c>
@@ -4216,7 +4189,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15">
+    <row r="30" spans="1:30">
       <c r="A30">
         <v>48</v>
       </c>
@@ -4308,7 +4281,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15">
+    <row r="31" spans="1:30">
       <c r="A31">
         <v>48</v>
       </c>
@@ -4400,7 +4373,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15">
+    <row r="32" spans="1:30">
       <c r="A32">
         <v>48</v>
       </c>
@@ -4492,7 +4465,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15">
+    <row r="33" spans="1:30">
       <c r="A33">
         <v>48</v>
       </c>
@@ -4584,7 +4557,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15">
+    <row r="34" spans="1:30">
       <c r="A34">
         <v>48</v>
       </c>
@@ -4676,7 +4649,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15">
+    <row r="35" spans="1:30">
       <c r="A35">
         <v>48</v>
       </c>
@@ -4768,7 +4741,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15">
+    <row r="36" spans="1:30">
       <c r="A36">
         <v>48</v>
       </c>
@@ -4860,7 +4833,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15">
+    <row r="37" spans="1:30">
       <c r="A37">
         <v>48</v>
       </c>
@@ -4952,7 +4925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15">
+    <row r="38" spans="1:30">
       <c r="A38">
         <v>48</v>
       </c>
@@ -5044,7 +5017,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15">
+    <row r="39" spans="1:30">
       <c r="A39">
         <v>48</v>
       </c>
@@ -5136,7 +5109,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15">
+    <row r="40" spans="1:30">
       <c r="A40">
         <v>48</v>
       </c>
@@ -5228,7 +5201,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15">
+    <row r="41" spans="1:30">
       <c r="A41">
         <v>48</v>
       </c>
@@ -5320,7 +5293,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15">
+    <row r="42" spans="1:30">
       <c r="A42">
         <v>48</v>
       </c>
@@ -5412,7 +5385,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15">
+    <row r="43" spans="1:30">
       <c r="A43">
         <v>48</v>
       </c>
@@ -5504,7 +5477,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15">
+    <row r="44" spans="1:30">
       <c r="A44">
         <v>48</v>
       </c>
@@ -5596,7 +5569,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15">
+    <row r="45" spans="1:30">
       <c r="A45">
         <v>48</v>
       </c>
@@ -5688,7 +5661,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15">
+    <row r="46" spans="1:30">
       <c r="A46">
         <v>48</v>
       </c>
@@ -5780,7 +5753,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15">
+    <row r="47" spans="1:30">
       <c r="A47">
         <v>48</v>
       </c>
@@ -5872,7 +5845,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15">
+    <row r="48" spans="1:30">
       <c r="A48">
         <v>48</v>
       </c>
@@ -5964,7 +5937,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15">
+    <row r="49" spans="1:30">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6056,7 +6029,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15">
+    <row r="50" spans="1:30">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6148,7 +6121,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="15">
+    <row r="51" spans="1:30">
       <c r="A51">
         <v>48</v>
       </c>
@@ -6240,7 +6213,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15">
+    <row r="52" spans="1:30">
       <c r="A52">
         <v>48</v>
       </c>
@@ -6332,7 +6305,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15">
+    <row r="53" spans="1:30">
       <c r="A53">
         <v>48</v>
       </c>
@@ -6424,7 +6397,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15">
+    <row r="54" spans="1:30">
       <c r="A54">
         <v>48</v>
       </c>
@@ -6516,7 +6489,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15">
+    <row r="55" spans="1:30">
       <c r="A55">
         <v>48</v>
       </c>
@@ -6608,7 +6581,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="15">
+    <row r="56" spans="1:30">
       <c r="A56">
         <v>48</v>
       </c>
@@ -6700,7 +6673,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15">
+    <row r="57" spans="1:30">
       <c r="A57">
         <v>48</v>
       </c>
@@ -6792,7 +6765,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15">
+    <row r="58" spans="1:30">
       <c r="A58">
         <v>48</v>
       </c>
@@ -6884,7 +6857,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15">
+    <row r="59" spans="1:30">
       <c r="A59">
         <v>48</v>
       </c>
@@ -6976,7 +6949,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="15">
+    <row r="60" spans="1:30">
       <c r="A60">
         <v>48</v>
       </c>
@@ -7068,7 +7041,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15">
+    <row r="61" spans="1:30">
       <c r="A61">
         <v>48</v>
       </c>
@@ -7160,7 +7133,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15">
+    <row r="62" spans="1:30">
       <c r="A62">
         <v>48</v>
       </c>
@@ -7252,7 +7225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15">
+    <row r="63" spans="1:30">
       <c r="A63">
         <v>48</v>
       </c>
@@ -7344,7 +7317,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="15">
+    <row r="64" spans="1:30">
       <c r="A64">
         <v>48</v>
       </c>
@@ -7436,7 +7409,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="15">
+    <row r="65" spans="1:30">
       <c r="A65">
         <v>48</v>
       </c>
@@ -7528,7 +7501,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="15">
+    <row r="66" spans="1:30">
       <c r="A66">
         <v>48</v>
       </c>
@@ -7620,7 +7593,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="15">
+    <row r="67" spans="1:30">
       <c r="A67">
         <v>48</v>
       </c>
@@ -7712,7 +7685,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="15">
+    <row r="68" spans="1:30">
       <c r="A68">
         <v>48</v>
       </c>
@@ -7804,7 +7777,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="15">
+    <row r="69" spans="1:30">
       <c r="A69">
         <v>48</v>
       </c>
@@ -7896,7 +7869,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="15">
+    <row r="70" spans="1:30">
       <c r="A70">
         <v>48</v>
       </c>
@@ -7988,7 +7961,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="15">
+    <row r="71" spans="1:30">
       <c r="A71">
         <v>48</v>
       </c>
@@ -8080,7 +8053,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="15">
+    <row r="72" spans="1:30">
       <c r="A72">
         <v>48</v>
       </c>
@@ -8172,7 +8145,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="15">
+    <row r="73" spans="1:30">
       <c r="A73">
         <v>48</v>
       </c>
@@ -8264,7 +8237,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="15">
+    <row r="74" spans="1:30">
       <c r="A74">
         <v>48</v>
       </c>
@@ -8356,7 +8329,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="15">
+    <row r="75" spans="1:30">
       <c r="A75">
         <v>48</v>
       </c>
@@ -8448,7 +8421,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="15">
+    <row r="76" spans="1:30">
       <c r="A76">
         <v>48</v>
       </c>
@@ -8540,7 +8513,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="15">
+    <row r="77" spans="1:30">
       <c r="A77">
         <v>48</v>
       </c>
@@ -8632,7 +8605,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="15">
+    <row r="78" spans="1:30">
       <c r="A78">
         <v>48</v>
       </c>
@@ -8724,7 +8697,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="15">
+    <row r="79" spans="1:30">
       <c r="A79">
         <v>48</v>
       </c>
@@ -8816,7 +8789,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="15">
+    <row r="80" spans="1:30">
       <c r="A80">
         <v>48</v>
       </c>
@@ -8908,7 +8881,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="15">
+    <row r="81" spans="1:30">
       <c r="A81">
         <v>48</v>
       </c>
@@ -9000,7 +8973,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="15">
+    <row r="82" spans="1:30">
       <c r="A82">
         <v>48</v>
       </c>
@@ -9092,7 +9065,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="15">
+    <row r="83" spans="1:30">
       <c r="A83">
         <v>48</v>
       </c>
@@ -9184,7 +9157,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="15">
+    <row r="84" spans="1:30">
       <c r="A84">
         <v>48</v>
       </c>
@@ -9276,7 +9249,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="15">
+    <row r="85" spans="1:30">
       <c r="A85">
         <v>48</v>
       </c>
@@ -9368,7 +9341,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="15">
+    <row r="86" spans="1:30">
       <c r="A86">
         <v>48</v>
       </c>
@@ -9460,7 +9433,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15">
+    <row r="87" spans="1:30">
       <c r="A87">
         <v>48</v>
       </c>
@@ -9552,7 +9525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15">
+    <row r="88" spans="1:30">
       <c r="A88">
         <v>48</v>
       </c>
@@ -9644,7 +9617,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15">
+    <row r="89" spans="1:30">
       <c r="A89">
         <v>48</v>
       </c>
@@ -9736,7 +9709,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15">
+    <row r="90" spans="1:30">
       <c r="A90">
         <v>48</v>
       </c>
@@ -9828,7 +9801,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15">
+    <row r="91" spans="1:30">
       <c r="A91">
         <v>48</v>
       </c>
@@ -9920,7 +9893,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="15">
+    <row r="92" spans="1:30">
       <c r="A92">
         <v>48</v>
       </c>
@@ -10012,7 +9985,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="15">
+    <row r="93" spans="1:30">
       <c r="A93">
         <v>48</v>
       </c>
@@ -10104,7 +10077,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="15">
+    <row r="94" spans="1:30">
       <c r="A94">
         <v>48</v>
       </c>
@@ -10196,7 +10169,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="15">
+    <row r="95" spans="1:30">
       <c r="A95">
         <v>48</v>
       </c>
@@ -10288,7 +10261,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="15">
+    <row r="96" spans="1:30">
       <c r="A96">
         <v>48</v>
       </c>
@@ -10380,7 +10353,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="15">
+    <row r="97" spans="1:30">
       <c r="A97">
         <v>48</v>
       </c>
@@ -10472,7 +10445,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="15">
+    <row r="98" spans="1:30">
       <c r="A98">
         <v>48</v>
       </c>
@@ -10564,7 +10537,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="15">
+    <row r="99" spans="1:30">
       <c r="A99">
         <v>48</v>
       </c>
@@ -10656,7 +10629,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="15">
+    <row r="100" spans="1:30">
       <c r="A100">
         <v>48</v>
       </c>
@@ -10748,7 +10721,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="15">
+    <row r="101" spans="1:30">
       <c r="A101">
         <v>48</v>
       </c>
@@ -10840,7 +10813,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="15">
+    <row r="102" spans="1:30">
       <c r="A102">
         <v>48</v>
       </c>
@@ -10932,7 +10905,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="15">
+    <row r="103" spans="1:30">
       <c r="A103">
         <v>48</v>
       </c>
@@ -11024,7 +10997,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="15">
+    <row r="104" spans="1:30">
       <c r="A104">
         <v>48</v>
       </c>
@@ -11116,7 +11089,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="15">
+    <row r="105" spans="1:30">
       <c r="A105">
         <v>48</v>
       </c>
@@ -11208,7 +11181,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="15">
+    <row r="106" spans="1:30">
       <c r="A106">
         <v>48</v>
       </c>
@@ -11300,7 +11273,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="15">
+    <row r="107" spans="1:30">
       <c r="A107">
         <v>48</v>
       </c>
@@ -11392,7 +11365,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="15">
+    <row r="108" spans="1:30">
       <c r="A108">
         <v>48</v>
       </c>
@@ -11484,7 +11457,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="15">
+    <row r="109" spans="1:30">
       <c r="A109">
         <v>48</v>
       </c>
@@ -11576,7 +11549,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="15">
+    <row r="110" spans="1:30">
       <c r="A110">
         <v>48</v>
       </c>
@@ -11668,7 +11641,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="15">
+    <row r="111" spans="1:30">
       <c r="A111">
         <v>48</v>
       </c>
@@ -11760,7 +11733,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="15">
+    <row r="112" spans="1:30">
       <c r="A112">
         <v>48</v>
       </c>
@@ -11852,7 +11825,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="15">
+    <row r="113" spans="1:30">
       <c r="A113">
         <v>48</v>
       </c>
@@ -11944,7 +11917,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="15">
+    <row r="114" spans="1:30">
       <c r="A114">
         <v>48</v>
       </c>
@@ -12036,7 +12009,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="15">
+    <row r="115" spans="1:30">
       <c r="A115">
         <v>48</v>
       </c>
@@ -12128,7 +12101,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="15">
+    <row r="116" spans="1:30">
       <c r="A116">
         <v>48</v>
       </c>
@@ -12220,7 +12193,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="15">
+    <row r="117" spans="1:30">
       <c r="A117">
         <v>48</v>
       </c>
@@ -12312,7 +12285,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="15">
+    <row r="118" spans="1:30">
       <c r="A118">
         <v>48</v>
       </c>
@@ -12404,7 +12377,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="15">
+    <row r="119" spans="1:30">
       <c r="A119">
         <v>48</v>
       </c>
@@ -12496,7 +12469,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="15">
+    <row r="120" spans="1:30">
       <c r="A120">
         <v>48</v>
       </c>
@@ -12588,7 +12561,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="15">
+    <row r="121" spans="1:30">
       <c r="A121">
         <v>48</v>
       </c>
@@ -12680,7 +12653,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="15">
+    <row r="122" spans="1:30">
       <c r="A122">
         <v>48</v>
       </c>
@@ -12772,7 +12745,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="15">
+    <row r="123" spans="1:30">
       <c r="A123">
         <v>48</v>
       </c>
@@ -12864,7 +12837,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="15">
+    <row r="124" spans="1:30">
       <c r="A124">
         <v>48</v>
       </c>
@@ -12956,7 +12929,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="15">
+    <row r="125" spans="1:30">
       <c r="A125">
         <v>48</v>
       </c>
@@ -13048,7 +13021,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="15">
+    <row r="126" spans="1:30">
       <c r="A126">
         <v>48</v>
       </c>
@@ -13140,7 +13113,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="15">
+    <row r="127" spans="1:30">
       <c r="A127">
         <v>48</v>
       </c>
@@ -13232,7 +13205,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="15">
+    <row r="128" spans="1:30">
       <c r="A128">
         <v>48</v>
       </c>
@@ -13324,7 +13297,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="15">
+    <row r="129" spans="1:30">
       <c r="A129">
         <v>48</v>
       </c>
@@ -13416,7 +13389,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="15">
+    <row r="130" spans="1:30">
       <c r="A130">
         <v>48</v>
       </c>
@@ -13508,7 +13481,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="15">
+    <row r="131" spans="1:30">
       <c r="A131">
         <v>48</v>
       </c>
@@ -13600,7 +13573,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="15">
+    <row r="132" spans="1:30">
       <c r="A132">
         <v>48</v>
       </c>
@@ -13692,7 +13665,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="15">
+    <row r="133" spans="1:30">
       <c r="A133">
         <v>48</v>
       </c>
@@ -13784,7 +13757,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="15">
+    <row r="134" spans="1:30">
       <c r="A134">
         <v>48</v>
       </c>
@@ -13876,7 +13849,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="15">
+    <row r="135" spans="1:30">
       <c r="A135">
         <v>48</v>
       </c>
@@ -13968,7 +13941,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="15">
+    <row r="136" spans="1:30">
       <c r="A136">
         <v>48</v>
       </c>
@@ -14060,7 +14033,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="15">
+    <row r="137" spans="1:30">
       <c r="A137">
         <v>48</v>
       </c>
@@ -14152,7 +14125,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="15">
+    <row r="138" spans="1:30">
       <c r="A138">
         <v>48</v>
       </c>
@@ -14244,7 +14217,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="15">
+    <row r="139" spans="1:30">
       <c r="A139">
         <v>48</v>
       </c>
@@ -14336,7 +14309,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="15">
+    <row r="140" spans="1:30">
       <c r="A140">
         <v>48</v>
       </c>
@@ -14428,7 +14401,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="15">
+    <row r="141" spans="1:30">
       <c r="A141">
         <v>48</v>
       </c>
@@ -14520,7 +14493,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="15">
+    <row r="142" spans="1:30">
       <c r="A142">
         <v>48</v>
       </c>
@@ -14612,7 +14585,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="15">
+    <row r="143" spans="1:30">
       <c r="A143">
         <v>48</v>
       </c>
@@ -14704,7 +14677,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="15">
+    <row r="144" spans="1:30">
       <c r="A144">
         <v>48</v>
       </c>
@@ -14796,7 +14769,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="15">
+    <row r="145" spans="1:30">
       <c r="A145">
         <v>48</v>
       </c>
@@ -14888,7 +14861,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="15">
+    <row r="146" spans="1:30">
       <c r="A146">
         <v>48</v>
       </c>
@@ -14980,7 +14953,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="15">
+    <row r="147" spans="1:30">
       <c r="A147">
         <v>48</v>
       </c>
@@ -15072,7 +15045,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="15">
+    <row r="148" spans="1:30">
       <c r="A148">
         <v>48</v>
       </c>
@@ -15164,7 +15137,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="15">
+    <row r="149" spans="1:30">
       <c r="A149">
         <v>48</v>
       </c>
@@ -15256,7 +15229,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="15">
+    <row r="150" spans="1:30">
       <c r="A150">
         <v>48</v>
       </c>
@@ -15348,7 +15321,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="15">
+    <row r="151" spans="1:30">
       <c r="A151">
         <v>48</v>
       </c>
@@ -15440,7 +15413,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="15">
+    <row r="152" spans="1:30">
       <c r="A152">
         <v>48</v>
       </c>
@@ -15532,7 +15505,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="15">
+    <row r="153" spans="1:30">
       <c r="A153">
         <v>48</v>
       </c>
@@ -15624,7 +15597,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="15">
+    <row r="154" spans="1:30">
       <c r="A154">
         <v>48</v>
       </c>
@@ -15716,7 +15689,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="15">
+    <row r="155" spans="1:30">
       <c r="A155">
         <v>48</v>
       </c>
@@ -15808,7 +15781,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="15">
+    <row r="156" spans="1:30">
       <c r="A156">
         <v>48</v>
       </c>
@@ -15900,7 +15873,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="15">
+    <row r="157" spans="1:30">
       <c r="A157">
         <v>48</v>
       </c>
@@ -15992,7 +15965,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="15">
+    <row r="158" spans="1:30">
       <c r="A158">
         <v>48</v>
       </c>
@@ -16084,7 +16057,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="15">
+    <row r="159" spans="1:30">
       <c r="A159">
         <v>48</v>
       </c>
@@ -16176,7 +16149,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="15">
+    <row r="160" spans="1:30">
       <c r="A160">
         <v>48</v>
       </c>
@@ -16268,7 +16241,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="15">
+    <row r="161" spans="1:30">
       <c r="A161">
         <v>48</v>
       </c>
@@ -16360,7 +16333,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="15">
+    <row r="162" spans="1:30">
       <c r="A162">
         <v>48</v>
       </c>
@@ -16452,7 +16425,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="15">
+    <row r="163" spans="1:30">
       <c r="A163">
         <v>48</v>
       </c>
@@ -16544,7 +16517,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="15">
+    <row r="164" spans="1:30">
       <c r="A164">
         <v>48</v>
       </c>
@@ -16636,7 +16609,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="15">
+    <row r="165" spans="1:30">
       <c r="A165">
         <v>48</v>
       </c>
@@ -16728,7 +16701,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="15">
+    <row r="166" spans="1:30">
       <c r="A166">
         <v>48</v>
       </c>
@@ -16820,7 +16793,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="15">
+    <row r="167" spans="1:30">
       <c r="A167">
         <v>48</v>
       </c>
@@ -16912,7 +16885,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="15">
+    <row r="168" spans="1:30">
       <c r="A168">
         <v>48</v>
       </c>
@@ -17004,7 +16977,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="15">
+    <row r="169" spans="1:30">
       <c r="A169">
         <v>48</v>
       </c>
@@ -17096,7 +17069,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="15">
+    <row r="170" spans="1:30">
       <c r="A170">
         <v>48</v>
       </c>
@@ -17188,7 +17161,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="15">
+    <row r="171" spans="1:30">
       <c r="A171">
         <v>48</v>
       </c>
@@ -17280,7 +17253,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="15">
+    <row r="172" spans="1:30">
       <c r="A172">
         <v>48</v>
       </c>
@@ -17372,7 +17345,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="15">
+    <row r="173" spans="1:30">
       <c r="A173">
         <v>48</v>
       </c>
@@ -17464,7 +17437,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="15">
+    <row r="174" spans="1:30">
       <c r="A174">
         <v>48</v>
       </c>
@@ -17556,7 +17529,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="15">
+    <row r="175" spans="1:30">
       <c r="A175">
         <v>48</v>
       </c>
@@ -17648,7 +17621,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="15">
+    <row r="176" spans="1:30">
       <c r="A176">
         <v>48</v>
       </c>
@@ -17740,7 +17713,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="15">
+    <row r="177" spans="1:30">
       <c r="A177">
         <v>48</v>
       </c>
@@ -17832,7 +17805,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="15">
+    <row r="178" spans="1:30">
       <c r="A178">
         <v>48</v>
       </c>
@@ -17924,7 +17897,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="15">
+    <row r="179" spans="1:30">
       <c r="A179">
         <v>48</v>
       </c>
@@ -18016,7 +17989,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="15">
+    <row r="180" spans="1:30">
       <c r="A180">
         <v>48</v>
       </c>
@@ -18108,7 +18081,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="15">
+    <row r="181" spans="1:30">
       <c r="A181">
         <v>48</v>
       </c>
@@ -18200,7 +18173,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="15">
+    <row r="182" spans="1:30">
       <c r="A182">
         <v>48</v>
       </c>
@@ -18292,7 +18265,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="15">
+    <row r="183" spans="1:30">
       <c r="A183">
         <v>48</v>
       </c>
@@ -18384,7 +18357,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="15">
+    <row r="184" spans="1:30">
       <c r="A184">
         <v>48</v>
       </c>
@@ -18476,7 +18449,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="15">
+    <row r="185" spans="1:30">
       <c r="A185">
         <v>48</v>
       </c>
@@ -18568,7 +18541,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="15">
+    <row r="186" spans="1:30">
       <c r="A186">
         <v>48</v>
       </c>
@@ -18660,7 +18633,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="15">
+    <row r="187" spans="1:30">
       <c r="A187">
         <v>48</v>
       </c>
@@ -18752,7 +18725,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="15">
+    <row r="188" spans="1:30">
       <c r="A188">
         <v>48</v>
       </c>
@@ -18844,7 +18817,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="15">
+    <row r="189" spans="1:30">
       <c r="A189">
         <v>48</v>
       </c>
@@ -18936,7 +18909,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="15">
+    <row r="190" spans="1:30">
       <c r="A190">
         <v>48</v>
       </c>
@@ -19028,7 +19001,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="15">
+    <row r="191" spans="1:30">
       <c r="A191">
         <v>48</v>
       </c>
@@ -19120,7 +19093,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="15">
+    <row r="192" spans="1:30">
       <c r="A192">
         <v>48</v>
       </c>
@@ -19212,7 +19185,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="15">
+    <row r="193" spans="1:30">
       <c r="A193">
         <v>48</v>
       </c>
@@ -19304,7 +19277,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="15">
+    <row r="194" spans="1:30">
       <c r="A194">
         <v>48</v>
       </c>
@@ -19396,7 +19369,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="15">
+    <row r="195" spans="1:30">
       <c r="A195">
         <v>48</v>
       </c>
@@ -19488,7 +19461,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="15">
+    <row r="196" spans="1:30">
       <c r="A196">
         <v>48</v>
       </c>
@@ -19580,7 +19553,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="15">
+    <row r="197" spans="1:30">
       <c r="A197">
         <v>48</v>
       </c>
@@ -19672,7 +19645,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="15">
+    <row r="198" spans="1:30">
       <c r="A198">
         <v>48</v>
       </c>
@@ -19764,7 +19737,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="15">
+    <row r="199" spans="1:30">
       <c r="A199">
         <v>48</v>
       </c>
@@ -19856,7 +19829,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="15">
+    <row r="200" spans="1:30">
       <c r="A200">
         <v>48</v>
       </c>
@@ -19948,7 +19921,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="15">
+    <row r="201" spans="1:30">
       <c r="A201">
         <v>48</v>
       </c>
@@ -20040,7 +20013,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="15">
+    <row r="202" spans="1:30">
       <c r="A202">
         <v>48</v>
       </c>
@@ -20132,7 +20105,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="15">
+    <row r="203" spans="1:30">
       <c r="A203">
         <v>48</v>
       </c>
@@ -20224,7 +20197,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="15">
+    <row r="204" spans="1:30">
       <c r="A204">
         <v>48</v>
       </c>
@@ -20316,7 +20289,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="15">
+    <row r="205" spans="1:30">
       <c r="A205">
         <v>48</v>
       </c>
@@ -20408,7 +20381,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="15">
+    <row r="206" spans="1:30">
       <c r="A206">
         <v>48</v>
       </c>
@@ -20500,7 +20473,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="15">
+    <row r="207" spans="1:30">
       <c r="A207">
         <v>48</v>
       </c>
@@ -20592,7 +20565,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="15">
+    <row r="208" spans="1:30">
       <c r="A208">
         <v>48</v>
       </c>
@@ -20684,7 +20657,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="15">
+    <row r="209" spans="1:30">
       <c r="A209">
         <v>48</v>
       </c>
@@ -20776,7 +20749,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="15">
+    <row r="210" spans="1:30">
       <c r="A210">
         <v>48</v>
       </c>
@@ -20868,7 +20841,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="15">
+    <row r="211" spans="1:30">
       <c r="A211">
         <v>48</v>
       </c>
@@ -20960,7 +20933,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="15">
+    <row r="212" spans="1:30">
       <c r="A212">
         <v>48</v>
       </c>
@@ -21052,7 +21025,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="15">
+    <row r="213" spans="1:30">
       <c r="A213">
         <v>48</v>
       </c>
@@ -21144,7 +21117,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="15">
+    <row r="214" spans="1:30">
       <c r="A214">
         <v>48</v>
       </c>
@@ -21236,7 +21209,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="15">
+    <row r="215" spans="1:30">
       <c r="A215">
         <v>48</v>
       </c>
@@ -21328,7 +21301,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="15">
+    <row r="216" spans="1:30">
       <c r="A216">
         <v>48</v>
       </c>
@@ -21420,7 +21393,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="15">
+    <row r="217" spans="1:30">
       <c r="A217">
         <v>48</v>
       </c>
@@ -21512,7 +21485,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="15">
+    <row r="218" spans="1:30">
       <c r="A218">
         <v>48</v>
       </c>
@@ -21604,7 +21577,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="15">
+    <row r="219" spans="1:30">
       <c r="A219">
         <v>48</v>
       </c>
@@ -21696,7 +21669,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="15">
+    <row r="220" spans="1:30">
       <c r="A220">
         <v>48</v>
       </c>
@@ -21788,7 +21761,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="15">
+    <row r="221" spans="1:30">
       <c r="A221">
         <v>48</v>
       </c>
@@ -21880,7 +21853,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="15">
+    <row r="222" spans="1:30">
       <c r="A222">
         <v>48</v>
       </c>
@@ -21972,7 +21945,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="15">
+    <row r="223" spans="1:30">
       <c r="A223">
         <v>48</v>
       </c>
@@ -22064,7 +22037,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="15">
+    <row r="224" spans="1:30">
       <c r="A224">
         <v>48</v>
       </c>
@@ -22156,7 +22129,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="15">
+    <row r="225" spans="1:30">
       <c r="A225">
         <v>48</v>
       </c>
@@ -22248,7 +22221,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="15">
+    <row r="226" spans="1:30">
       <c r="A226">
         <v>48</v>
       </c>
@@ -22340,7 +22313,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="15">
+    <row r="227" spans="1:30">
       <c r="A227">
         <v>48</v>
       </c>
@@ -22432,7 +22405,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="15">
+    <row r="228" spans="1:30">
       <c r="A228">
         <v>48</v>
       </c>
@@ -22524,7 +22497,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="15">
+    <row r="229" spans="1:30">
       <c r="A229">
         <v>48</v>
       </c>
@@ -22616,7 +22589,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="15">
+    <row r="230" spans="1:30">
       <c r="A230">
         <v>48</v>
       </c>
@@ -22708,7 +22681,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="15">
+    <row r="231" spans="1:30">
       <c r="A231">
         <v>48</v>
       </c>
@@ -22800,7 +22773,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="15">
+    <row r="232" spans="1:30">
       <c r="A232">
         <v>48</v>
       </c>
@@ -22892,7 +22865,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="15">
+    <row r="233" spans="1:30">
       <c r="A233">
         <v>48</v>
       </c>
@@ -22984,7 +22957,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="15">
+    <row r="234" spans="1:30">
       <c r="A234">
         <v>48</v>
       </c>
@@ -23076,7 +23049,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="15">
+    <row r="235" spans="1:30">
       <c r="A235">
         <v>48</v>
       </c>
@@ -23168,7 +23141,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="15">
+    <row r="236" spans="1:30">
       <c r="A236">
         <v>48</v>
       </c>
@@ -23260,7 +23233,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="15">
+    <row r="237" spans="1:30">
       <c r="A237">
         <v>48</v>
       </c>
@@ -23352,7 +23325,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="15">
+    <row r="238" spans="1:30">
       <c r="A238">
         <v>48</v>
       </c>
@@ -23444,7 +23417,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="15">
+    <row r="239" spans="1:30">
       <c r="A239">
         <v>48</v>
       </c>
@@ -23536,7 +23509,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="15">
+    <row r="240" spans="1:30">
       <c r="A240">
         <v>48</v>
       </c>
@@ -23628,7 +23601,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="15">
+    <row r="241" spans="1:30">
       <c r="A241">
         <v>48</v>
       </c>
@@ -23720,7 +23693,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="15">
+    <row r="242" spans="1:30">
       <c r="A242">
         <v>48</v>
       </c>
@@ -23812,7 +23785,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="15">
+    <row r="243" spans="1:30">
       <c r="A243">
         <v>48</v>
       </c>
@@ -23904,7 +23877,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="15">
+    <row r="244" spans="1:30">
       <c r="A244">
         <v>48</v>
       </c>
@@ -23996,7 +23969,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="15">
+    <row r="245" spans="1:30">
       <c r="A245">
         <v>48</v>
       </c>
@@ -24088,7 +24061,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="15">
+    <row r="246" spans="1:30">
       <c r="A246">
         <v>48</v>
       </c>
@@ -24180,7 +24153,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="15">
+    <row r="247" spans="1:30">
       <c r="A247">
         <v>48</v>
       </c>
@@ -24272,7 +24245,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="15">
+    <row r="248" spans="1:30">
       <c r="A248">
         <v>48</v>
       </c>
@@ -24364,7 +24337,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="15">
+    <row r="249" spans="1:30">
       <c r="A249">
         <v>48</v>
       </c>
@@ -24456,7 +24429,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="15">
+    <row r="250" spans="1:30">
       <c r="A250">
         <v>48</v>
       </c>
@@ -24548,7 +24521,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="15">
+    <row r="251" spans="1:30">
       <c r="A251">
         <v>48</v>
       </c>
@@ -24640,7 +24613,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="15">
+    <row r="252" spans="1:30">
       <c r="A252">
         <v>48</v>
       </c>
@@ -24732,7 +24705,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="15">
+    <row r="253" spans="1:30">
       <c r="A253">
         <v>48</v>
       </c>
@@ -24824,7 +24797,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="15">
+    <row r="254" spans="1:30">
       <c r="A254">
         <v>48</v>
       </c>
@@ -24916,7 +24889,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="15">
+    <row r="255" spans="1:30">
       <c r="A255">
         <v>48</v>
       </c>
@@ -25008,7 +24981,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="15">
+    <row r="256" spans="1:30">
       <c r="A256">
         <v>48</v>
       </c>
@@ -25100,7 +25073,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="15">
+    <row r="257" spans="1:30">
       <c r="A257">
         <v>48</v>
       </c>
@@ -25192,7 +25165,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="15">
+    <row r="258" spans="1:30">
       <c r="A258">
         <v>48</v>
       </c>
@@ -25284,7 +25257,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="15">
+    <row r="259" spans="1:30">
       <c r="A259">
         <v>48</v>
       </c>
@@ -25376,7 +25349,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="15">
+    <row r="260" spans="1:30">
       <c r="A260">
         <v>48</v>
       </c>
@@ -25468,7 +25441,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="15">
+    <row r="261" spans="1:30">
       <c r="A261">
         <v>48</v>
       </c>
@@ -25560,7 +25533,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="15">
+    <row r="262" spans="1:30">
       <c r="A262">
         <v>48</v>
       </c>
@@ -25652,7 +25625,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="15">
+    <row r="263" spans="1:30">
       <c r="A263">
         <v>48</v>
       </c>
@@ -25744,7 +25717,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="15">
+    <row r="264" spans="1:30">
       <c r="A264">
         <v>48</v>
       </c>
@@ -25836,7 +25809,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="15">
+    <row r="265" spans="1:30">
       <c r="A265">
         <v>48</v>
       </c>
@@ -25928,7 +25901,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="15">
+    <row r="266" spans="1:30">
       <c r="A266">
         <v>48</v>
       </c>
@@ -26020,7 +25993,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="15">
+    <row r="267" spans="1:30">
       <c r="A267">
         <v>48</v>
       </c>
@@ -26112,7 +26085,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="15">
+    <row r="268" spans="1:30">
       <c r="A268">
         <v>48</v>
       </c>
@@ -26204,7 +26177,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="15">
+    <row r="269" spans="1:30">
       <c r="A269">
         <v>48</v>
       </c>
@@ -26296,7 +26269,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="15">
+    <row r="270" spans="1:30">
       <c r="A270">
         <v>48</v>
       </c>
@@ -26388,7 +26361,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="15">
+    <row r="271" spans="1:30">
       <c r="A271">
         <v>48</v>
       </c>
@@ -26480,7 +26453,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="15">
+    <row r="272" spans="1:30">
       <c r="A272">
         <v>48</v>
       </c>
@@ -26572,7 +26545,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="15">
+    <row r="273" spans="1:30">
       <c r="A273">
         <v>48</v>
       </c>
@@ -26664,7 +26637,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="15">
+    <row r="274" spans="1:30">
       <c r="A274">
         <v>48</v>
       </c>
@@ -26756,7 +26729,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="15">
+    <row r="275" spans="1:30">
       <c r="A275">
         <v>48</v>
       </c>
@@ -26848,7 +26821,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="15">
+    <row r="276" spans="1:30">
       <c r="A276">
         <v>48</v>
       </c>
@@ -26940,7 +26913,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="15">
+    <row r="277" spans="1:30">
       <c r="A277">
         <v>48</v>
       </c>
@@ -27032,7 +27005,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="15">
+    <row r="278" spans="1:30">
       <c r="A278">
         <v>48</v>
       </c>
@@ -27124,7 +27097,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="15">
+    <row r="279" spans="1:30">
       <c r="A279">
         <v>48</v>
       </c>
@@ -27216,7 +27189,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="15">
+    <row r="280" spans="1:30">
       <c r="A280">
         <v>48</v>
       </c>
@@ -27308,7 +27281,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="15">
+    <row r="281" spans="1:30">
       <c r="A281">
         <v>48</v>
       </c>
@@ -27400,7 +27373,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="15">
+    <row r="282" spans="1:30">
       <c r="A282">
         <v>48</v>
       </c>
@@ -27492,7 +27465,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="15">
+    <row r="283" spans="1:30">
       <c r="A283">
         <v>48</v>
       </c>
@@ -27584,7 +27557,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="15">
+    <row r="284" spans="1:30">
       <c r="A284">
         <v>48</v>
       </c>
@@ -27676,7 +27649,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="15">
+    <row r="285" spans="1:30">
       <c r="A285">
         <v>48</v>
       </c>
@@ -27768,7 +27741,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="15">
+    <row r="286" spans="1:30">
       <c r="A286">
         <v>48</v>
       </c>
@@ -27860,7 +27833,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="15">
+    <row r="287" spans="1:30">
       <c r="A287">
         <v>48</v>
       </c>
@@ -27952,7 +27925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="15">
+    <row r="288" spans="1:30">
       <c r="A288">
         <v>48</v>
       </c>
@@ -28044,7 +28017,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="15">
+    <row r="289" spans="1:30">
       <c r="A289">
         <v>48</v>
       </c>
@@ -28136,7 +28109,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="15">
+    <row r="290" spans="1:30">
       <c r="A290">
         <v>48</v>
       </c>
@@ -28228,7 +28201,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="15">
+    <row r="291" spans="1:30">
       <c r="A291">
         <v>48</v>
       </c>
@@ -28320,7 +28293,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="15">
+    <row r="292" spans="1:30">
       <c r="A292">
         <v>48</v>
       </c>
@@ -28412,7 +28385,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="15">
+    <row r="293" spans="1:30">
       <c r="A293">
         <v>48</v>
       </c>
@@ -28504,7 +28477,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="15">
+    <row r="294" spans="1:30">
       <c r="A294">
         <v>48</v>
       </c>
@@ -28596,7 +28569,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="15">
+    <row r="295" spans="1:30">
       <c r="A295">
         <v>48</v>
       </c>
@@ -28688,7 +28661,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="15">
+    <row r="296" spans="1:30">
       <c r="A296">
         <v>48</v>
       </c>
@@ -28780,7 +28753,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="15">
+    <row r="297" spans="1:30">
       <c r="A297">
         <v>48</v>
       </c>
@@ -28872,7 +28845,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="15">
+    <row r="298" spans="1:30">
       <c r="A298">
         <v>48</v>
       </c>
@@ -28964,7 +28937,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="15">
+    <row r="299" spans="1:30">
       <c r="A299">
         <v>48</v>
       </c>
@@ -29056,7 +29029,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="15">
+    <row r="300" spans="1:30">
       <c r="A300">
         <v>48</v>
       </c>
@@ -29148,7 +29121,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="15">
+    <row r="301" spans="1:30">
       <c r="A301">
         <v>48</v>
       </c>
@@ -29240,7 +29213,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="15">
+    <row r="302" spans="1:30">
       <c r="A302">
         <v>48</v>
       </c>
@@ -29332,7 +29305,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="15">
+    <row r="303" spans="1:30">
       <c r="A303">
         <v>48</v>
       </c>
@@ -29424,7 +29397,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="15">
+    <row r="304" spans="1:30">
       <c r="A304">
         <v>48</v>
       </c>
@@ -29516,7 +29489,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="15">
+    <row r="305" spans="1:30">
       <c r="A305">
         <v>48</v>
       </c>
@@ -29608,7 +29581,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="15">
+    <row r="306" spans="1:30">
       <c r="A306">
         <v>48</v>
       </c>
@@ -29700,7 +29673,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="15">
+    <row r="307" spans="1:30">
       <c r="A307">
         <v>48</v>
       </c>
@@ -29792,7 +29765,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="15">
+    <row r="308" spans="1:30">
       <c r="A308">
         <v>48</v>
       </c>
@@ -29884,7 +29857,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="15">
+    <row r="309" spans="1:30">
       <c r="A309">
         <v>48</v>
       </c>
@@ -29976,7 +29949,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="15">
+    <row r="310" spans="1:30">
       <c r="A310">
         <v>48</v>
       </c>
@@ -30068,7 +30041,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="15">
+    <row r="311" spans="1:30">
       <c r="A311">
         <v>48</v>
       </c>
@@ -30160,7 +30133,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="15">
+    <row r="312" spans="1:30">
       <c r="A312">
         <v>48</v>
       </c>
@@ -30252,7 +30225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="15">
+    <row r="313" spans="1:30">
       <c r="A313">
         <v>48</v>
       </c>
@@ -30344,7 +30317,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="15">
+    <row r="314" spans="1:30">
       <c r="A314">
         <v>48</v>
       </c>
@@ -30436,7 +30409,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="15">
+    <row r="315" spans="1:30">
       <c r="A315">
         <v>48</v>
       </c>
@@ -30539,15 +30512,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -30770,6 +30734,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -30779,13 +30752,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7A4A8E-35DC-4A0A-B1F6-9D42D1E3AE08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19AC8095-8D61-4F8F-93D8-627E7F452D22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19AC8095-8D61-4F8F-93D8-627E7F452D22}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7A4A8E-35DC-4A0A-B1F6-9D42D1E3AE08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B2E2AE-FD2D-4D2F-B46C-682041841E85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B2E2AE-FD2D-4D2F-B46C-682041841E85}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>